--- a/src/definitions/commands/matter.xlsx
+++ b/src/definitions/commands/matter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamGathright\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CD477E-4224-452A-9D0C-197785A21B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB214EC0-07BA-4388-B2E9-4EDA30523E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="10545" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
+    <workbookView xWindow="95760" yWindow="22560" windowWidth="29280" windowHeight="15960" activeTab="1" xr2:uid="{1B9D9F25-051D-43DA-8E4C-4097472714C9}"/>
   </bookViews>
   <sheets>
     <sheet name="help" sheetId="2" r:id="rId1"/>
@@ -3606,9 +3606,6 @@
     <t>Generator Port Connection</t>
   </si>
   <si>
-    <t>If using a generator, select which port it's connected to â€” either the GEN port or the Grid Input port (sometimes called microgrid mode). If no generator is installed, leave this setting on GEN port.</t>
-  </si>
-  <si>
     <t>Generator</t>
   </si>
   <si>
@@ -3724,9 +3721,6 @@
     <t>GeneratorPort,GridPort</t>
   </si>
   <si>
-    <t>GEN port (also select if not using generator).,Grid port (aka microgrid mode)</t>
-  </si>
-  <si>
     <t>Generator.BatteryChargeCurrentLimit</t>
   </si>
   <si>
@@ -4525,6 +4519,12 @@
   </si>
   <si>
     <t>The output phase this inverter is responsible for in a three-phase system. R, S, and T correspond to L1, L2, and L3.</t>
+  </si>
+  <si>
+    <t>GEN port. Also pick this option if you are not using generator.,Grid port - also called microgrid mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If using a generator, select which port it's connected to: eeither the GEN port or the Grid Input port (sometimes called microgrid mode). If no generator is installed, leave this setting on GEN port.  In Microgrid Mode, the inverter treats the generator as the primary AC source rather than the utility grid.  When microgrid mode is active, all charging and operating limits come from the Generator settings—not the Grid Charge limits. Remember to install CTs on any power wires attached to the grid port.  This includes a generator that is configured in microgrid mode.  </t>
   </si>
 </sst>
 </file>
@@ -5417,13 +5417,13 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,10 +5442,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5453,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,10 +5475,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,10 +5486,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,10 +5497,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,10 +5508,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5519,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5530,10 +5530,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,10 +5541,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5552,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,10 +5563,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5574,10 +5574,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5607,10 +5607,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5618,10 +5618,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5629,10 +5629,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5640,10 +5640,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -5655,9 +5655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E6F9F-94E9-4923-9FA9-34B4E6FF732D}">
   <dimension ref="A1:AD176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5665,6 +5665,10 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="66.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.7109375" bestFit="1" customWidth="1"/>
@@ -5751,16 +5755,16 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>832</v>
+      </c>
+      <c r="AC1" t="s">
         <v>833</v>
       </c>
-      <c r="AB1" t="s">
-        <v>834</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>835</v>
-      </c>
       <c r="AD1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,7 +5775,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -5819,7 +5823,7 @@
         <v>40104</v>
       </c>
       <c r="AB2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC2" t="s">
         <v>37</v>
@@ -5845,10 +5849,10 @@
         <v>40104</v>
       </c>
       <c r="AB3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5871,7 +5875,7 @@
         <v>40104</v>
       </c>
       <c r="AB4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC4" t="s">
         <v>40</v>
@@ -5897,7 +5901,7 @@
         <v>40104</v>
       </c>
       <c r="AB5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC5" t="s">
         <v>41</v>
@@ -5923,10 +5927,10 @@
         <v>40104</v>
       </c>
       <c r="AB6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC6" t="s">
         <v>836</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,10 +5953,10 @@
         <v>40104</v>
       </c>
       <c r="AB7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,7 +6003,7 @@
         <v>40104</v>
       </c>
       <c r="AB8" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC8" t="str">
         <f t="shared" ref="AC8:AC44" si="0">H8</f>
@@ -6050,7 +6054,7 @@
         <v>40104</v>
       </c>
       <c r="AB9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC9" t="str">
         <f t="shared" si="0"/>
@@ -6142,7 +6146,7 @@
         <v>40104</v>
       </c>
       <c r="AB11" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC11" t="s">
         <v>82</v>
@@ -6265,7 +6269,7 @@
         <v>40104</v>
       </c>
       <c r="AB14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC14" t="str">
         <f t="shared" si="0"/>
@@ -6307,7 +6311,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -6319,7 +6323,7 @@
         <v>40104</v>
       </c>
       <c r="AB15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC15" t="str">
         <f t="shared" si="0"/>
@@ -6382,7 +6386,7 @@
         <v>40104</v>
       </c>
       <c r="AB16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC16" t="str">
         <f t="shared" si="0"/>
@@ -6424,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -6436,7 +6440,7 @@
         <v>40104</v>
       </c>
       <c r="AB17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC17" t="str">
         <f t="shared" si="0"/>
@@ -6466,7 +6470,7 @@
         <v>102</v>
       </c>
       <c r="H18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="O18" t="s">
         <v>48</v>
@@ -6487,7 +6491,7 @@
         <v>40104</v>
       </c>
       <c r="AB18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC18" t="str">
         <f t="shared" si="0"/>
@@ -6529,7 +6533,7 @@
         <v>38</v>
       </c>
       <c r="T19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -6541,7 +6545,7 @@
         <v>40104</v>
       </c>
       <c r="AB19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC19" t="str">
         <f t="shared" si="0"/>
@@ -6604,7 +6608,7 @@
         <v>40104</v>
       </c>
       <c r="AB20" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC20" t="str">
         <f t="shared" si="0"/>
@@ -6655,7 +6659,7 @@
         <v>40104</v>
       </c>
       <c r="AB21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC21" t="str">
         <f t="shared" si="0"/>
@@ -6706,7 +6710,7 @@
         <v>40104</v>
       </c>
       <c r="AB22" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC22" t="str">
         <f t="shared" si="0"/>
@@ -6762,7 +6766,7 @@
         <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -6798,7 +6802,7 @@
         <v>40104</v>
       </c>
       <c r="AB24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC24" t="s">
         <v>159</v>
@@ -6848,7 +6852,7 @@
         <v>40104</v>
       </c>
       <c r="AB25" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC25" t="str">
         <f t="shared" si="0"/>
@@ -6893,7 +6897,7 @@
         <v>40104</v>
       </c>
       <c r="AB26" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC26" t="str">
         <f t="shared" si="0"/>
@@ -6944,7 +6948,7 @@
         <v>40104</v>
       </c>
       <c r="AB27" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC27" t="str">
         <f t="shared" si="0"/>
@@ -6995,7 +6999,7 @@
         <v>40104</v>
       </c>
       <c r="AB28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC28" t="str">
         <f t="shared" si="0"/>
@@ -7058,7 +7062,7 @@
         <v>40104</v>
       </c>
       <c r="AB29" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC29" t="str">
         <f t="shared" si="0"/>
@@ -7109,7 +7113,7 @@
         <v>40104</v>
       </c>
       <c r="AB30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC30" t="str">
         <f t="shared" si="0"/>
@@ -7172,7 +7176,7 @@
         <v>40104</v>
       </c>
       <c r="AB31" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC31" t="str">
         <f t="shared" si="0"/>
@@ -7223,7 +7227,7 @@
         <v>40104</v>
       </c>
       <c r="AB32" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC32" t="str">
         <f t="shared" si="0"/>
@@ -7265,13 +7269,13 @@
         <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA33">
         <v>40104</v>
       </c>
       <c r="AB33" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC33" t="str">
         <f t="shared" si="0"/>
@@ -7313,13 +7317,13 @@
         <v>38</v>
       </c>
       <c r="T34" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA34">
         <v>40104</v>
       </c>
       <c r="AB34" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC34" t="str">
         <f t="shared" si="0"/>
@@ -7361,13 +7365,13 @@
         <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AA35">
         <v>40104</v>
       </c>
       <c r="AB35" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC35" t="str">
         <f t="shared" si="0"/>
@@ -7418,7 +7422,7 @@
         <v>40104</v>
       </c>
       <c r="AB36" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC36" t="str">
         <f>H36</f>
@@ -7460,7 +7464,7 @@
         <v>38</v>
       </c>
       <c r="T37" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -7472,7 +7476,7 @@
         <v>40104</v>
       </c>
       <c r="AB37" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC37" t="str">
         <f t="shared" si="0"/>
@@ -7523,7 +7527,7 @@
         <v>40104</v>
       </c>
       <c r="AB38" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC38" t="s">
         <v>242</v>
@@ -7549,7 +7553,7 @@
         <v>40104</v>
       </c>
       <c r="AB39" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC39" t="s">
         <v>245</v>
@@ -7593,7 +7597,7 @@
         <v>251</v>
       </c>
       <c r="T40" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -7605,7 +7609,7 @@
         <v>40104</v>
       </c>
       <c r="AB40" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC40" t="str">
         <f t="shared" si="0"/>
@@ -7650,7 +7654,7 @@
         <v>256</v>
       </c>
       <c r="T41" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -7662,7 +7666,7 @@
         <v>40104</v>
       </c>
       <c r="AB41" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC41" t="str">
         <f t="shared" si="0"/>
@@ -7757,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="T43" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -7822,7 +7826,7 @@
         <v>40104</v>
       </c>
       <c r="AB44" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC44" t="str">
         <f t="shared" si="0"/>
@@ -7879,7 +7883,7 @@
         <v>290</v>
       </c>
       <c r="T45" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -7891,10 +7895,10 @@
         <v>40104</v>
       </c>
       <c r="AB45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC45" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7941,10 +7945,10 @@
         <v>40104</v>
       </c>
       <c r="AB46" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC46" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AD46" t="s">
         <v>41</v>
@@ -7970,13 +7974,13 @@
         <v>40104</v>
       </c>
       <c r="AB47" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>839</v>
+      </c>
+      <c r="AD47" t="s">
         <v>836</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>841</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,10 +8003,10 @@
         <v>40104</v>
       </c>
       <c r="AB48" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC48" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AD48" t="s">
         <v>41</v>
@@ -8028,13 +8032,13 @@
         <v>40104</v>
       </c>
       <c r="AB49" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>842</v>
+      </c>
+      <c r="AD49" t="s">
         <v>836</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>844</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8081,10 +8085,10 @@
         <v>40104</v>
       </c>
       <c r="AB50" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC50" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AD50" t="s">
         <v>41</v>
@@ -8110,13 +8114,13 @@
         <v>40104</v>
       </c>
       <c r="AB51" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>841</v>
+      </c>
+      <c r="AD51" t="s">
         <v>836</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>843</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8139,10 +8143,10 @@
         <v>40104</v>
       </c>
       <c r="AB52" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC52" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AD52" t="s">
         <v>41</v>
@@ -8168,13 +8172,13 @@
         <v>40104</v>
       </c>
       <c r="AB53" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>843</v>
+      </c>
+      <c r="AD53" t="s">
         <v>836</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>845</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8221,10 +8225,10 @@
         <v>40104</v>
       </c>
       <c r="AB54" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC54" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="AD54" t="s">
         <v>41</v>
@@ -8250,13 +8254,13 @@
         <v>40104</v>
       </c>
       <c r="AB55" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD55" t="s">
         <v>836</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>846</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8279,10 +8283,10 @@
         <v>40104</v>
       </c>
       <c r="AB56" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC56" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="AD56" t="s">
         <v>41</v>
@@ -8308,13 +8312,13 @@
         <v>40104</v>
       </c>
       <c r="AB57" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>845</v>
+      </c>
+      <c r="AD57" t="s">
         <v>836</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>847</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8376,10 +8380,10 @@
         <v>40104</v>
       </c>
       <c r="AB58" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC58" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8417,7 +8421,7 @@
         <v>38</v>
       </c>
       <c r="T59" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -8429,10 +8433,10 @@
         <v>40104</v>
       </c>
       <c r="AB59" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC59" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,10 +8483,10 @@
         <v>40104</v>
       </c>
       <c r="AB60" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC60" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AD60" t="s">
         <v>41</v>
@@ -8508,13 +8512,13 @@
         <v>40104</v>
       </c>
       <c r="AB61" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>847</v>
+      </c>
+      <c r="AD61" t="s">
         <v>836</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>849</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8537,10 +8541,10 @@
         <v>40104</v>
       </c>
       <c r="AB62" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC62" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AD62" t="s">
         <v>41</v>
@@ -8566,13 +8570,13 @@
         <v>40104</v>
       </c>
       <c r="AB63" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>848</v>
+      </c>
+      <c r="AD63" t="s">
         <v>836</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>850</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8619,10 +8623,10 @@
         <v>40104</v>
       </c>
       <c r="AB64" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC64" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AD64" t="s">
         <v>41</v>
@@ -8648,13 +8652,13 @@
         <v>40104</v>
       </c>
       <c r="AB65" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>849</v>
+      </c>
+      <c r="AD65" t="s">
         <v>836</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>851</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8677,10 +8681,10 @@
         <v>40104</v>
       </c>
       <c r="AB66" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC66" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AD66" t="s">
         <v>41</v>
@@ -8706,13 +8710,13 @@
         <v>40104</v>
       </c>
       <c r="AB67" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>850</v>
+      </c>
+      <c r="AD67" t="s">
         <v>836</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8759,10 +8763,10 @@
         <v>40104</v>
       </c>
       <c r="AB68" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC68" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="AD68" t="s">
         <v>41</v>
@@ -8788,13 +8792,13 @@
         <v>40104</v>
       </c>
       <c r="AB69" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>851</v>
+      </c>
+      <c r="AD69" t="s">
         <v>836</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>853</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8817,10 +8821,10 @@
         <v>40104</v>
       </c>
       <c r="AB70" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC70" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AD70" t="s">
         <v>41</v>
@@ -8846,13 +8850,13 @@
         <v>40104</v>
       </c>
       <c r="AB71" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD71" t="s">
         <v>836</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8911,7 +8915,7 @@
         <v>40104</v>
       </c>
       <c r="AB72" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" ref="AC72:AC129" si="1">H72</f>
@@ -8962,7 +8966,7 @@
         <v>40104</v>
       </c>
       <c r="AB73" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC73" t="str">
         <f t="shared" si="1"/>
@@ -8998,7 +9002,7 @@
         <v>125</v>
       </c>
       <c r="P74" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Q74" t="s">
         <v>38</v>
@@ -9016,7 +9020,7 @@
         <v>40104</v>
       </c>
       <c r="AB74" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC74" t="str">
         <f t="shared" si="1"/>
@@ -9028,13 +9032,13 @@
         <v>351</v>
       </c>
       <c r="P75" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q75" t="s">
         <v>38</v>
       </c>
       <c r="T75" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -9049,7 +9053,7 @@
         <v>40104</v>
       </c>
       <c r="AB75" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC75" t="s">
         <v>124</v>
@@ -9090,7 +9094,7 @@
         <v>49</v>
       </c>
       <c r="T76" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="Y76" t="s">
         <v>357</v>
@@ -9102,7 +9106,7 @@
         <v>40104</v>
       </c>
       <c r="AB76" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC76" t="str">
         <f t="shared" si="1"/>
@@ -9153,10 +9157,10 @@
         <v>40104</v>
       </c>
       <c r="AB77" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC77" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AD77" t="s">
         <v>41</v>
@@ -9182,13 +9186,13 @@
         <v>40104</v>
       </c>
       <c r="AB78" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD78" t="s">
         <v>836</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>855</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9211,10 +9215,10 @@
         <v>40104</v>
       </c>
       <c r="AB79" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC79" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AD79" t="s">
         <v>41</v>
@@ -9240,13 +9244,13 @@
         <v>40104</v>
       </c>
       <c r="AB80" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>854</v>
+      </c>
+      <c r="AD80" t="s">
         <v>836</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9269,10 +9273,10 @@
         <v>40104</v>
       </c>
       <c r="AB81" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC81" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AD81" t="s">
         <v>41</v>
@@ -9298,13 +9302,13 @@
         <v>40104</v>
       </c>
       <c r="AB82" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD82" t="s">
         <v>836</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>857</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="83" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9327,10 +9331,10 @@
         <v>40104</v>
       </c>
       <c r="AB83" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC83" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AD83" t="s">
         <v>41</v>
@@ -9356,13 +9360,13 @@
         <v>40104</v>
       </c>
       <c r="AB84" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD84" t="s">
         <v>836</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>858</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="85" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9385,10 +9389,10 @@
         <v>40104</v>
       </c>
       <c r="AB85" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC85" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AD85" t="s">
         <v>41</v>
@@ -9414,13 +9418,13 @@
         <v>40104</v>
       </c>
       <c r="AB86" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD86" t="s">
         <v>836</v>
-      </c>
-      <c r="AC86" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD86" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9443,10 +9447,10 @@
         <v>40104</v>
       </c>
       <c r="AB87" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC87" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AD87" t="s">
         <v>41</v>
@@ -9472,13 +9476,13 @@
         <v>40104</v>
       </c>
       <c r="AB88" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>858</v>
+      </c>
+      <c r="AD88" t="s">
         <v>836</v>
-      </c>
-      <c r="AC88" t="s">
-        <v>860</v>
-      </c>
-      <c r="AD88" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9537,7 +9541,7 @@
         <v>40104</v>
       </c>
       <c r="AB89" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC89" t="str">
         <f t="shared" si="1"/>
@@ -9588,7 +9592,7 @@
         <v>40104</v>
       </c>
       <c r="AB90" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC90" t="str">
         <f t="shared" si="1"/>
@@ -9639,7 +9643,7 @@
         <v>40104</v>
       </c>
       <c r="AB91" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC91" t="str">
         <f t="shared" si="1"/>
@@ -9696,10 +9700,10 @@
         <v>40104</v>
       </c>
       <c r="AB92" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC92" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="93" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9716,10 +9720,10 @@
         <v>40104</v>
       </c>
       <c r="AB93" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC93" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="94" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9760,10 +9764,10 @@
         <v>40104</v>
       </c>
       <c r="AB94" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC94" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9780,10 +9784,10 @@
         <v>40104</v>
       </c>
       <c r="AB95" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC95" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9824,10 +9828,10 @@
         <v>40104</v>
       </c>
       <c r="AB96" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC96" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,10 +9848,10 @@
         <v>40104</v>
       </c>
       <c r="AB97" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC97" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9888,10 +9892,10 @@
         <v>40104</v>
       </c>
       <c r="AB98" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC98" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="99" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9908,10 +9912,10 @@
         <v>40104</v>
       </c>
       <c r="AB99" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC99" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9952,10 +9956,10 @@
         <v>40104</v>
       </c>
       <c r="AB100" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC100" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9972,10 +9976,10 @@
         <v>40104</v>
       </c>
       <c r="AB101" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC101" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10016,10 +10020,10 @@
         <v>40104</v>
       </c>
       <c r="AB102" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC102" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10036,10 +10040,10 @@
         <v>40104</v>
       </c>
       <c r="AB103" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC103" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10080,10 +10084,10 @@
         <v>40104</v>
       </c>
       <c r="AB104" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC104" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10100,10 +10104,10 @@
         <v>40104</v>
       </c>
       <c r="AB105" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC105" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10144,10 +10148,10 @@
         <v>40104</v>
       </c>
       <c r="AB106" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC106" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10164,10 +10168,10 @@
         <v>40104</v>
       </c>
       <c r="AB107" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC107" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10208,10 +10212,10 @@
         <v>40104</v>
       </c>
       <c r="AB108" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC108" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10228,10 +10232,10 @@
         <v>40104</v>
       </c>
       <c r="AB109" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC109" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,10 +10276,10 @@
         <v>40104</v>
       </c>
       <c r="AB110" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC110" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10292,10 +10296,10 @@
         <v>40104</v>
       </c>
       <c r="AB111" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC111" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10336,10 +10340,10 @@
         <v>40104</v>
       </c>
       <c r="AB112" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC112" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10356,10 +10360,10 @@
         <v>40104</v>
       </c>
       <c r="AB113" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC113" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10400,10 +10404,10 @@
         <v>40104</v>
       </c>
       <c r="AB114" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC114" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10420,10 +10424,10 @@
         <v>40104</v>
       </c>
       <c r="AB115" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC115" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10476,7 +10480,7 @@
         <v>40104</v>
       </c>
       <c r="AB116" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC116" t="str">
         <f t="shared" si="1"/>
@@ -10521,7 +10525,7 @@
         <v>40104</v>
       </c>
       <c r="AB117" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC117" t="str">
         <f t="shared" si="1"/>
@@ -10566,7 +10570,7 @@
         <v>40104</v>
       </c>
       <c r="AB118" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC118" t="s">
         <v>498</v>
@@ -10586,7 +10590,7 @@
         <v>40104</v>
       </c>
       <c r="AB119" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC119" t="s">
         <v>499</v>
@@ -10630,7 +10634,7 @@
         <v>40104</v>
       </c>
       <c r="AB120" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC120" t="s">
         <v>504</v>
@@ -10650,7 +10654,7 @@
         <v>40104</v>
       </c>
       <c r="AB121" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC121" t="s">
         <v>505</v>
@@ -10694,7 +10698,7 @@
         <v>40104</v>
       </c>
       <c r="AB122" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC122" t="s">
         <v>510</v>
@@ -10714,7 +10718,7 @@
         <v>40104</v>
       </c>
       <c r="AB123" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC123" t="s">
         <v>512</v>
@@ -10770,7 +10774,7 @@
         <v>40104</v>
       </c>
       <c r="AB124" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC124" t="str">
         <f t="shared" si="1"/>
@@ -10821,10 +10825,10 @@
         <v>40104</v>
       </c>
       <c r="AB125" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC125" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10841,7 +10845,7 @@
         <v>40104</v>
       </c>
       <c r="AB126" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC126" t="s">
         <v>526</v>
@@ -10897,10 +10901,10 @@
         <v>40104</v>
       </c>
       <c r="AB127" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC127" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="128" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10923,7 +10927,7 @@
         <v>40104</v>
       </c>
       <c r="AB128" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC128" t="s">
         <v>536</v>
@@ -10967,7 +10971,7 @@
         <v>40104</v>
       </c>
       <c r="AB129" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC129" t="str">
         <f t="shared" si="1"/>
@@ -11024,7 +11028,7 @@
         <v>40104</v>
       </c>
       <c r="AB130" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC130" t="str">
         <f t="shared" ref="AC130:AC174" si="2">H130</f>
@@ -11075,7 +11079,7 @@
         <v>40104</v>
       </c>
       <c r="AB131" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC131" t="str">
         <f t="shared" si="2"/>
@@ -11120,7 +11124,7 @@
         <v>40104</v>
       </c>
       <c r="AB132" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC132" t="str">
         <f t="shared" si="2"/>
@@ -11165,7 +11169,7 @@
         <v>40104</v>
       </c>
       <c r="AB133" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC133" t="str">
         <f t="shared" si="2"/>
@@ -11210,10 +11214,10 @@
         <v>40104</v>
       </c>
       <c r="AB134" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC134" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11230,10 +11234,10 @@
         <v>40104</v>
       </c>
       <c r="AB135" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC135" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11250,10 +11254,10 @@
         <v>40104</v>
       </c>
       <c r="AB136" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC136" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="137" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11270,10 +11274,10 @@
         <v>40104</v>
       </c>
       <c r="AB137" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC137" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="138" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11314,7 +11318,7 @@
         <v>40104</v>
       </c>
       <c r="AB138" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC138" t="str">
         <f t="shared" si="2"/>
@@ -11359,7 +11363,7 @@
         <v>40104</v>
       </c>
       <c r="AB139" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC139" t="str">
         <f t="shared" si="2"/>
@@ -11404,7 +11408,7 @@
         <v>40104</v>
       </c>
       <c r="AB140" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC140" t="str">
         <f t="shared" si="2"/>
@@ -11449,7 +11453,7 @@
         <v>40104</v>
       </c>
       <c r="AB141" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC141" t="str">
         <f t="shared" si="2"/>
@@ -11494,10 +11498,10 @@
         <v>40104</v>
       </c>
       <c r="AB142" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC142" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,7 +11554,7 @@
         <v>40104</v>
       </c>
       <c r="AB143" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC143" t="str">
         <f t="shared" si="2"/>
@@ -11595,10 +11599,10 @@
         <v>40104</v>
       </c>
       <c r="AB144" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC144" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="145" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11615,10 +11619,10 @@
         <v>40104</v>
       </c>
       <c r="AB145" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC145" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="146" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11635,10 +11639,10 @@
         <v>40104</v>
       </c>
       <c r="AB146" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC146" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="147" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11691,7 +11695,7 @@
         <v>40104</v>
       </c>
       <c r="AB147" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC147" t="str">
         <f t="shared" si="2"/>
@@ -11736,7 +11740,7 @@
         <v>40104</v>
       </c>
       <c r="AB148" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC148" t="s">
         <v>634</v>
@@ -11756,7 +11760,7 @@
         <v>40104</v>
       </c>
       <c r="AB149" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC149" t="s">
         <v>635</v>
@@ -11800,7 +11804,7 @@
         <v>40104</v>
       </c>
       <c r="AB150" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC150" t="str">
         <f t="shared" si="2"/>
@@ -11836,7 +11840,7 @@
         <v>566</v>
       </c>
       <c r="P151" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="Q151" t="s">
         <v>38</v>
@@ -11845,10 +11849,10 @@
         <v>40104</v>
       </c>
       <c r="AB151" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC151" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11901,7 +11905,7 @@
         <v>40104</v>
       </c>
       <c r="AB152" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC152" t="str">
         <f t="shared" si="2"/>
@@ -11946,10 +11950,10 @@
         <v>40104</v>
       </c>
       <c r="AB153" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC153" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="154" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11987,13 +11991,13 @@
         <v>38</v>
       </c>
       <c r="T154" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AA154">
         <v>40104</v>
       </c>
       <c r="AB154" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC154" t="str">
         <f t="shared" si="2"/>
@@ -12038,7 +12042,7 @@
         <v>40104</v>
       </c>
       <c r="AB155" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC155" t="str">
         <f t="shared" si="2"/>
@@ -12083,7 +12087,7 @@
         <v>40104</v>
       </c>
       <c r="AB156" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC156" t="str">
         <f t="shared" si="2"/>
@@ -12128,7 +12132,7 @@
         <v>40104</v>
       </c>
       <c r="AB157" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC157" t="str">
         <f t="shared" si="2"/>
@@ -12191,7 +12195,7 @@
         <v>40104</v>
       </c>
       <c r="AB158" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC158" t="str">
         <f t="shared" si="2"/>
@@ -12233,7 +12237,7 @@
         <v>49</v>
       </c>
       <c r="T159" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="Y159" s="2">
         <v>208220230240277</v>
@@ -12245,7 +12249,7 @@
         <v>40104</v>
       </c>
       <c r="AB159" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC159" t="str">
         <f t="shared" si="2"/>
@@ -12260,7 +12264,7 @@
         <v>687</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>688</v>
+        <v>906</v>
       </c>
       <c r="D160" t="s">
         <v>28</v>
@@ -12272,43 +12276,43 @@
         <v>30</v>
       </c>
       <c r="G160" t="s">
+        <v>688</v>
+      </c>
+      <c r="H160" t="s">
         <v>689</v>
       </c>
-      <c r="H160" t="s">
+      <c r="K160" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="K160" s="1" t="s">
+      <c r="L160" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="L160" s="1" t="s">
+      <c r="M160" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="M160" s="1" t="s">
+      <c r="N160" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="N160" s="1" t="s">
+      <c r="O160" t="s">
         <v>694</v>
       </c>
-      <c r="O160" t="s">
+      <c r="P160" t="s">
         <v>695</v>
-      </c>
-      <c r="P160" t="s">
-        <v>696</v>
       </c>
       <c r="Q160" t="s">
         <v>49</v>
       </c>
       <c r="Y160" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Z160" t="s">
-        <v>698</v>
+        <v>905</v>
       </c>
       <c r="AA160">
         <v>40104</v>
       </c>
       <c r="AB160" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC160" t="str">
         <f t="shared" si="2"/>
@@ -12317,13 +12321,13 @@
     </row>
     <row r="161" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>697</v>
+      </c>
+      <c r="B161" t="s">
+        <v>698</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B161" t="s">
-        <v>700</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
@@ -12335,16 +12339,16 @@
         <v>30</v>
       </c>
       <c r="G161" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H161" t="s">
+        <v>700</v>
+      </c>
+      <c r="O161" t="s">
+        <v>701</v>
+      </c>
+      <c r="P161" t="s">
         <v>702</v>
-      </c>
-      <c r="O161" t="s">
-        <v>703</v>
-      </c>
-      <c r="P161" t="s">
-        <v>704</v>
       </c>
       <c r="Q161" t="s">
         <v>38</v>
@@ -12353,7 +12357,7 @@
         <v>40104</v>
       </c>
       <c r="AB161" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC161" t="str">
         <f t="shared" si="2"/>
@@ -12362,13 +12366,13 @@
     </row>
     <row r="162" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>703</v>
+      </c>
+      <c r="B162" t="s">
+        <v>704</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B162" t="s">
-        <v>706</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -12380,16 +12384,16 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H162" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="O162" t="s">
         <v>98</v>
       </c>
       <c r="P162" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q162" t="s">
         <v>38</v>
@@ -12404,7 +12408,7 @@
         <v>40104</v>
       </c>
       <c r="AB162" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC162" t="str">
         <f t="shared" si="2"/>
@@ -12413,13 +12417,13 @@
     </row>
     <row r="163" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>708</v>
+      </c>
+      <c r="B163" t="s">
+        <v>709</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B163" t="s">
-        <v>711</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
@@ -12431,16 +12435,16 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H163" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="O163" t="s">
         <v>566</v>
       </c>
       <c r="P163" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q163" t="s">
         <v>38</v>
@@ -12449,7 +12453,7 @@
         <v>40104</v>
       </c>
       <c r="AB163" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC163" t="str">
         <f t="shared" si="2"/>
@@ -12458,13 +12462,13 @@
     </row>
     <row r="164" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>713</v>
+      </c>
+      <c r="B164" t="s">
+        <v>714</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B164" t="s">
-        <v>716</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
@@ -12476,25 +12480,25 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H164" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="O164" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="P164" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Q164" t="s">
         <v>38</v>
       </c>
       <c r="R164" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T164" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U164">
         <v>0</v>
@@ -12509,10 +12513,10 @@
         <v>40104</v>
       </c>
       <c r="AB164" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC164" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12520,16 +12524,16 @@
         <v>351</v>
       </c>
       <c r="P165" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q165" t="s">
         <v>38</v>
       </c>
       <c r="R165" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T165" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U165">
         <v>5</v>
@@ -12538,27 +12542,27 @@
         <v>100</v>
       </c>
       <c r="X165" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AA165">
         <v>40104</v>
       </c>
       <c r="AB165" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC165" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166" t="s">
+        <v>721</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B166" t="s">
-        <v>723</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
@@ -12570,45 +12574,45 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H166" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O166" t="s">
         <v>48</v>
       </c>
       <c r="P166" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Q166" t="s">
         <v>49</v>
       </c>
       <c r="Y166" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Z166" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AA166">
         <v>40101</v>
       </c>
       <c r="AB166" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC166" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>727</v>
+      </c>
+      <c r="B167" t="s">
+        <v>728</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B167" t="s">
-        <v>730</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D167" t="s">
         <v>28</v>
@@ -12620,10 +12624,10 @@
         <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H167" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="O167" t="s">
         <v>48</v>
@@ -12638,13 +12642,13 @@
         <v>63</v>
       </c>
       <c r="Z167" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AA167">
         <v>40104</v>
       </c>
       <c r="AB167" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC167" t="str">
         <f t="shared" si="2"/>
@@ -12653,13 +12657,13 @@
     </row>
     <row r="168" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>732</v>
+      </c>
+      <c r="B168" t="s">
+        <v>733</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="B168" t="s">
-        <v>735</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="D168" t="s">
         <v>28</v>
@@ -12671,10 +12675,10 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H168" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O168" t="s">
         <v>48</v>
@@ -12695,7 +12699,7 @@
         <v>40104</v>
       </c>
       <c r="AB168" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC168" t="str">
         <f t="shared" si="2"/>
@@ -12704,13 +12708,13 @@
     </row>
     <row r="169" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>736</v>
+      </c>
+      <c r="B169" t="s">
+        <v>737</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="B169" t="s">
-        <v>739</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
@@ -12722,28 +12726,28 @@
         <v>30</v>
       </c>
       <c r="G169" t="s">
+        <v>739</v>
+      </c>
+      <c r="H169" t="s">
+        <v>739</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="L169" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="H169" t="s">
-        <v>741</v>
-      </c>
-      <c r="K169" s="1" t="s">
+      <c r="M169" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="L169" s="1" t="s">
+      <c r="N169" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="O169" t="s">
         <v>48</v>
       </c>
       <c r="P169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q169" t="s">
         <v>49</v>
@@ -12758,7 +12762,7 @@
         <v>40104</v>
       </c>
       <c r="AB169" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC169" t="str">
         <f t="shared" si="2"/>
@@ -12767,13 +12771,13 @@
     </row>
     <row r="170" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>745</v>
+      </c>
+      <c r="B170" t="s">
+        <v>746</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B170" t="s">
-        <v>748</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
@@ -12785,25 +12789,25 @@
         <v>30</v>
       </c>
       <c r="G170" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H170" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O170" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="P170" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Q170" t="s">
         <v>38</v>
       </c>
       <c r="R170" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="T170" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U170">
         <v>0</v>
@@ -12818,10 +12822,10 @@
         <v>40104</v>
       </c>
       <c r="AB170" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC170" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12829,16 +12833,16 @@
         <v>351</v>
       </c>
       <c r="P171" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="Q171" t="s">
         <v>38</v>
       </c>
       <c r="R171" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="T171" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U171">
         <v>0</v>
@@ -12847,27 +12851,27 @@
         <v>100</v>
       </c>
       <c r="X171" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AA171">
         <v>40104</v>
       </c>
       <c r="AB171" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC171" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>751</v>
+      </c>
+      <c r="B172" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="B172" t="s">
-        <v>754</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
@@ -12879,22 +12883,22 @@
         <v>30</v>
       </c>
       <c r="G172" t="s">
+        <v>754</v>
+      </c>
+      <c r="H172" t="s">
+        <v>755</v>
+      </c>
+      <c r="K172" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H172" t="s">
+      <c r="L172" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="O172" t="s">
         <v>48</v>
@@ -12906,13 +12910,13 @@
         <v>63</v>
       </c>
       <c r="Z172" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AA172">
         <v>40104</v>
       </c>
       <c r="AB172" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC172" t="str">
         <f t="shared" si="2"/>
@@ -12921,13 +12925,13 @@
     </row>
     <row r="173" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>761</v>
+      </c>
+      <c r="B173" t="s">
+        <v>762</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="B173" t="s">
-        <v>764</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
@@ -12939,16 +12943,16 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H173" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O173" t="s">
         <v>48</v>
       </c>
       <c r="P173" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Q173" t="s">
         <v>49</v>
@@ -12957,13 +12961,13 @@
         <v>63</v>
       </c>
       <c r="Z173" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AA173">
         <v>40104</v>
       </c>
       <c r="AB173" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC173" t="str">
         <f t="shared" si="2"/>
@@ -12972,13 +12976,13 @@
     </row>
     <row r="174" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>767</v>
+      </c>
+      <c r="B174" t="s">
+        <v>768</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B174" t="s">
-        <v>770</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
@@ -12990,16 +12994,16 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H174" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="O174" t="s">
         <v>98</v>
       </c>
       <c r="P174" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q174" t="s">
         <v>38</v>
@@ -13014,7 +13018,7 @@
         <v>40104</v>
       </c>
       <c r="AB174" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC174" t="str">
         <f t="shared" si="2"/>
@@ -13023,13 +13027,13 @@
     </row>
     <row r="175" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>772</v>
+      </c>
+      <c r="B175" t="s">
+        <v>773</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="B175" t="s">
-        <v>775</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
@@ -13041,16 +13045,16 @@
         <v>30</v>
       </c>
       <c r="G175" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H175" t="s">
+        <v>775</v>
+      </c>
+      <c r="O175" t="s">
+        <v>776</v>
+      </c>
+      <c r="P175" t="s">
         <v>777</v>
-      </c>
-      <c r="O175" t="s">
-        <v>778</v>
-      </c>
-      <c r="P175" t="s">
-        <v>779</v>
       </c>
       <c r="Q175" t="s">
         <v>38</v>
@@ -13062,24 +13066,24 @@
         <v>100</v>
       </c>
       <c r="W175" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AA175">
         <v>40104</v>
       </c>
       <c r="AB175" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC175" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O176" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="P176" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="Q176" t="s">
         <v>38</v>
@@ -13091,16 +13095,16 @@
         <v>100</v>
       </c>
       <c r="X176" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="AA176">
         <v>40104</v>
       </c>
       <c r="AB176" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AC176" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
